--- a/biology/Biologie cellulaire et moléculaire/Céline_Bon/Céline_Bon.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Céline_Bon/Céline_Bon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9line_Bon</t>
+          <t>Céline_Bon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céline Bon, née en 1983, est une paléogénéticienne et anthropologue française, maître de conférence au Muséum national d'histoire naturelle, à Paris. Elle est spécialisée dans l'analyse de l'ADN ancien présent dans les fossiles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9line_Bon</t>
+          <t>Céline_Bon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Céline Bon fréquente l’école normale supérieure de Cachan, où elle obtient une agrégation en sciences de la vie et de la Terre. Elle effectue ensuite son doctorat au Commissariat à l’énergie atomique, où elle se consacre à l'analyse génétique des restes animaux de la grotte Chauvet-Pont d’Arc. Elle séquence le génome mitochondrial de l’Ours des cavernes et date la disparition de celui-ci à 30 000 ans. Elle parvient à étudier le génome de l'espèce et son alimentation par une nouvelle méthode d’analyse des coprolithes[1].
-Carrière
-Céline Bon effectue ensuite un post-doctorat de génomique évolutive au laboratoire Dyogen de l’École normale supérieure de la rue d’Ulm[1],[2].
-Elle fait partie du laboratoire d'écoanthropologie et ethnobiologie du Muséum national d'histoire naturelle[3], où elle travaille sur la caractérisation de la diversité génétique en Asie centrale méridionale durant la Protohistoire[2].
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Céline Bon fréquente l’école normale supérieure de Cachan, où elle obtient une agrégation en sciences de la vie et de la Terre. Elle effectue ensuite son doctorat au Commissariat à l’énergie atomique, où elle se consacre à l'analyse génétique des restes animaux de la grotte Chauvet-Pont d’Arc. Elle séquence le génome mitochondrial de l’Ours des cavernes et date la disparition de celui-ci à 30 000 ans. Elle parvient à étudier le génome de l'espèce et son alimentation par une nouvelle méthode d’analyse des coprolithes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Céline_Bon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9line_Bon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Céline Bon effectue ensuite un post-doctorat de génomique évolutive au laboratoire Dyogen de l’École normale supérieure de la rue d’Ulm,.
+Elle fait partie du laboratoire d'écoanthropologie et ethnobiologie du Muséum national d'histoire naturelle, où elle travaille sur la caractérisation de la diversité génétique en Asie centrale méridionale durant la Protohistoire.
 </t>
         </is>
       </c>
